--- a/パルテナ/files/CharaList.xlsx
+++ b/パルテナ/files/CharaList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asaimasaya\Desktop\スマブラメモ\パルテナ\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFB90EB-075B-4F1B-A076-E3C807AD93BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DD0B6A-75C8-477C-BC5B-2EE9D1D7ED47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="204">
   <si>
     <t>01</t>
     <phoneticPr fontId="1"/>
@@ -457,10 +457,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>？？？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ディディーコング</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -764,6 +760,18 @@
   </si>
   <si>
     <t>homura&amp;hikari</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>82</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1092,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C55" sqref="A1:F84"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1106,7 +1114,7 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -1118,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -1130,7 +1138,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1142,7 +1150,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -1151,7 +1159,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1162,7 +1170,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1175,7 +1183,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1188,7 +1196,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1201,7 +1209,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1214,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1227,7 +1235,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1240,7 +1248,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1253,7 +1261,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1266,7 +1274,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>24</v>
@@ -1275,7 +1283,7 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1286,7 +1294,7 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1299,7 +1307,7 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1312,7 +1320,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1325,7 +1333,7 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1338,7 +1346,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1351,7 +1359,7 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1364,7 +1372,7 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1377,7 +1385,7 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>34</v>
@@ -1386,7 +1394,7 @@
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1397,7 +1405,7 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1410,7 +1418,7 @@
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1423,7 +1431,7 @@
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1436,7 +1444,7 @@
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1449,7 +1457,7 @@
         <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1462,7 +1470,7 @@
         <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1475,7 +1483,7 @@
         <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1488,7 +1496,7 @@
         <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>46</v>
@@ -1497,7 +1505,7 @@
         <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1508,7 +1516,7 @@
         <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1521,7 +1529,7 @@
         <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1534,7 +1542,7 @@
         <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1547,7 +1555,7 @@
         <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1560,7 +1568,7 @@
         <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1573,7 +1581,7 @@
         <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1586,7 +1594,7 @@
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1596,10 +1604,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1612,7 +1620,7 @@
         <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1625,7 +1633,7 @@
         <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1638,7 +1646,7 @@
         <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1651,7 +1659,7 @@
         <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1664,7 +1672,7 @@
         <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1677,7 +1685,7 @@
         <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1690,7 +1698,7 @@
         <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1703,7 +1711,7 @@
         <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1716,7 +1724,7 @@
         <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1729,7 +1737,7 @@
         <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1742,7 +1750,7 @@
         <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1755,7 +1763,7 @@
         <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1768,7 +1776,7 @@
         <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1781,7 +1789,7 @@
         <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1794,7 +1802,7 @@
         <v>69</v>
       </c>
       <c r="C52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1807,7 +1815,7 @@
         <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1820,7 +1828,7 @@
         <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1833,7 +1841,7 @@
         <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1846,7 +1854,7 @@
         <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1859,7 +1867,7 @@
         <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1872,7 +1880,7 @@
         <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1885,7 +1893,7 @@
         <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1898,7 +1906,7 @@
         <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -1911,7 +1919,7 @@
         <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1924,7 +1932,7 @@
         <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1937,7 +1945,7 @@
         <v>80</v>
       </c>
       <c r="C63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -1950,7 +1958,7 @@
         <v>81</v>
       </c>
       <c r="C64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1963,7 +1971,7 @@
         <v>82</v>
       </c>
       <c r="C65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -1976,7 +1984,7 @@
         <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -1989,7 +1997,7 @@
         <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2002,7 +2010,7 @@
         <v>85</v>
       </c>
       <c r="C68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>86</v>
@@ -2011,7 +2019,7 @@
         <v>87</v>
       </c>
       <c r="F68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2022,7 +2030,7 @@
         <v>89</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2035,7 +2043,7 @@
         <v>90</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -2048,7 +2056,7 @@
         <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2061,7 +2069,7 @@
         <v>92</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D72" s="1"/>
     </row>
@@ -2073,7 +2081,7 @@
         <v>93</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D73" s="1"/>
     </row>
@@ -2085,7 +2093,7 @@
         <v>94</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D74" s="1"/>
     </row>
@@ -2097,7 +2105,7 @@
         <v>95</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D75" s="1"/>
     </row>
@@ -2109,7 +2117,7 @@
         <v>96</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D76" s="1"/>
     </row>
@@ -2121,7 +2129,7 @@
         <v>97</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D77" s="1"/>
     </row>
@@ -2133,7 +2141,7 @@
         <v>98</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D78" s="1"/>
     </row>
@@ -2145,7 +2153,7 @@
         <v>99</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D79" s="1"/>
     </row>
@@ -2157,7 +2165,7 @@
         <v>100</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D80" s="1"/>
     </row>
@@ -2169,7 +2177,7 @@
         <v>101</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D81" s="1"/>
     </row>
@@ -2181,7 +2189,7 @@
         <v>102</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D82" s="1"/>
     </row>
@@ -2193,7 +2201,7 @@
         <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D83" s="1"/>
     </row>
@@ -2202,7 +2210,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>104</v>
+        <v>201</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="D84" s="1"/>
     </row>
@@ -2215,10 +2226,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C2DC03-EDAE-48EA-818D-90EC86F690B3}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2231,7 +2242,7 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -2243,7 +2254,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -2255,7 +2266,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2267,7 +2278,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2278,7 +2289,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2291,7 +2302,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2304,7 +2315,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2317,7 +2328,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2330,7 +2341,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2343,7 +2354,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2356,7 +2367,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2369,7 +2380,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2382,7 +2393,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2395,7 +2406,7 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2406,7 +2417,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2419,7 +2430,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2432,7 +2443,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2445,7 +2456,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2458,7 +2469,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2471,7 +2482,7 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2484,7 +2495,7 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2497,7 +2508,7 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2510,7 +2521,7 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2521,7 +2532,7 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2534,7 +2545,7 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2547,7 +2558,7 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2560,7 +2571,7 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2573,7 +2584,7 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2586,7 +2597,7 @@
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2599,7 +2610,7 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2612,7 +2623,7 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2625,7 +2636,7 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2636,7 +2647,7 @@
         <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2649,7 +2660,7 @@
         <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2662,7 +2673,7 @@
         <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2675,7 +2686,7 @@
         <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2688,20 +2699,20 @@
         <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2711,10 +2722,10 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2727,7 +2738,7 @@
         <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2740,7 +2751,7 @@
         <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2753,7 +2764,7 @@
         <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2766,7 +2777,7 @@
         <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2779,7 +2790,7 @@
         <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2792,7 +2803,7 @@
         <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2805,7 +2816,7 @@
         <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2818,7 +2829,7 @@
         <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2831,7 +2842,7 @@
         <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2844,7 +2855,7 @@
         <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2857,7 +2868,7 @@
         <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2870,7 +2881,7 @@
         <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2883,7 +2894,7 @@
         <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2896,7 +2907,7 @@
         <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2909,7 +2920,7 @@
         <v>72</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2922,7 +2933,7 @@
         <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2935,7 +2946,7 @@
         <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2948,7 +2959,7 @@
         <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2961,7 +2972,7 @@
         <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2974,7 +2985,7 @@
         <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2987,7 +2998,7 @@
         <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -3000,7 +3011,7 @@
         <v>79</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -3013,7 +3024,7 @@
         <v>80</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -3026,7 +3037,7 @@
         <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -3039,7 +3050,7 @@
         <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3052,7 +3063,7 @@
         <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -3065,7 +3076,7 @@
         <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3078,7 +3089,7 @@
         <v>85</v>
       </c>
       <c r="C67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3089,7 +3100,7 @@
         <v>87</v>
       </c>
       <c r="C68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -3102,7 +3113,7 @@
         <v>89</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -3115,7 +3126,7 @@
         <v>90</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3128,7 +3139,7 @@
         <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3141,7 +3152,7 @@
         <v>92</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D72" s="1"/>
     </row>
@@ -3153,7 +3164,7 @@
         <v>93</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D73" s="1"/>
     </row>
@@ -3165,7 +3176,7 @@
         <v>94</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D74" s="1"/>
     </row>
@@ -3177,7 +3188,7 @@
         <v>95</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D75" s="1"/>
     </row>
@@ -3189,7 +3200,7 @@
         <v>96</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D76" s="1"/>
     </row>
@@ -3201,7 +3212,7 @@
         <v>97</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D77" s="1"/>
     </row>
@@ -3213,7 +3224,7 @@
         <v>98</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D78" s="1"/>
     </row>
@@ -3225,7 +3236,7 @@
         <v>99</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D79" s="1"/>
     </row>
@@ -3237,19 +3248,19 @@
         <v>100</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="D81" s="1"/>
     </row>
@@ -3261,64 +3272,76 @@
         <v>103</v>
       </c>
       <c r="C82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D82" s="1"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="1">
-        <v>51</v>
+      <c r="A83" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C83" t="s">
-        <v>159</v>
+        <v>201</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="D83" s="1"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="1" t="s">
-        <v>194</v>
+      <c r="A86" s="1">
+        <v>53</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="C86" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3330,8 +3353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B91481B-8B3F-4F86-8970-9965432259DB}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3344,7 +3367,7 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -3356,7 +3379,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -3368,7 +3391,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -3380,7 +3403,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -3389,7 +3412,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3400,7 +3423,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -3413,7 +3436,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3426,7 +3449,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3439,7 +3462,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3452,7 +3475,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -3465,7 +3488,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -3478,7 +3501,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -3491,7 +3514,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -3504,7 +3527,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>24</v>
@@ -3513,7 +3536,7 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3524,7 +3547,7 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3537,7 +3560,7 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -3550,7 +3573,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -3563,7 +3586,7 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -3576,7 +3599,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -3589,7 +3612,7 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -3602,7 +3625,7 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -3615,7 +3638,7 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>34</v>
@@ -3624,7 +3647,7 @@
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3635,7 +3658,7 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3648,7 +3671,7 @@
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -3661,7 +3684,7 @@
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -3674,7 +3697,7 @@
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -3687,7 +3710,7 @@
         <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -3700,7 +3723,7 @@
         <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3713,7 +3736,7 @@
         <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -3726,7 +3749,7 @@
         <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>46</v>
@@ -3735,7 +3758,7 @@
         <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3746,7 +3769,7 @@
         <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -3759,7 +3782,7 @@
         <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -3772,7 +3795,7 @@
         <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -3785,20 +3808,20 @@
         <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -3808,10 +3831,10 @@
         <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -3824,7 +3847,7 @@
         <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -3837,7 +3860,7 @@
         <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -3850,7 +3873,7 @@
         <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -3863,7 +3886,7 @@
         <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -3876,7 +3899,7 @@
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -3889,7 +3912,7 @@
         <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3902,7 +3925,7 @@
         <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -3915,7 +3938,7 @@
         <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3928,7 +3951,7 @@
         <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -3941,7 +3964,7 @@
         <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -3954,7 +3977,7 @@
         <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -3967,7 +3990,7 @@
         <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -3980,7 +4003,7 @@
         <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -3993,7 +4016,7 @@
         <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -4006,7 +4029,7 @@
         <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -4019,7 +4042,7 @@
         <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -4032,7 +4055,7 @@
         <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -4045,7 +4068,7 @@
         <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -4058,7 +4081,7 @@
         <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -4071,7 +4094,7 @@
         <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -4084,7 +4107,7 @@
         <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -4097,7 +4120,7 @@
         <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -4110,7 +4133,7 @@
         <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -4123,7 +4146,7 @@
         <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -4136,7 +4159,7 @@
         <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -4149,7 +4172,7 @@
         <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -4162,7 +4185,7 @@
         <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -4175,7 +4198,7 @@
         <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -4188,7 +4211,7 @@
         <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -4201,7 +4224,7 @@
         <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -4214,7 +4237,7 @@
         <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>86</v>
@@ -4223,7 +4246,7 @@
         <v>87</v>
       </c>
       <c r="F66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4234,7 +4257,7 @@
         <v>89</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -4247,7 +4270,7 @@
         <v>90</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -4260,7 +4283,7 @@
         <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -4273,7 +4296,7 @@
         <v>92</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D70" s="1"/>
     </row>
@@ -4285,7 +4308,7 @@
         <v>93</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D71" s="1"/>
     </row>
@@ -4297,7 +4320,7 @@
         <v>94</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D72" s="1"/>
     </row>
@@ -4309,7 +4332,7 @@
         <v>95</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D73" s="1"/>
     </row>
@@ -4321,7 +4344,7 @@
         <v>96</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D74" s="1"/>
     </row>
@@ -4333,7 +4356,7 @@
         <v>97</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D75" s="1"/>
     </row>
@@ -4345,7 +4368,7 @@
         <v>98</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D76" s="1"/>
     </row>
@@ -4357,7 +4380,7 @@
         <v>99</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D77" s="1"/>
     </row>
@@ -4369,19 +4392,19 @@
         <v>100</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="D79" s="1"/>
     </row>
@@ -4393,7 +4416,7 @@
         <v>103</v>
       </c>
       <c r="C80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D80" s="1"/>
     </row>
@@ -4402,12 +4425,16 @@
         <v>82</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>104</v>
+        <v>201</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="D81" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>